--- a/1_variable.js/7_WebScraping/espnScraper/IPL/Sunrisers Hyderabad/Jonny Bairstow †.xlsx
+++ b/1_variable.js/7_WebScraping/espnScraper/IPL/Sunrisers Hyderabad/Jonny Bairstow †.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -765,9 +765,359 @@
         <v>Sunrisers won by 7 runs</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Jonny Bairstow †</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="D12" t="str">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <v>3</v>
+      </c>
+      <c r="F12" t="str">
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <v>0</v>
+      </c>
+      <c r="H12" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Oct 2 2020</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Sunrisers won by 7 runs</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Jonny Bairstow †</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="D13" t="str">
+        <v>19</v>
+      </c>
+      <c r="E13" t="str">
+        <v>20</v>
+      </c>
+      <c r="F13" t="str">
+        <v>4</v>
+      </c>
+      <c r="G13" t="str">
+        <v>0</v>
+      </c>
+      <c r="H13" t="str">
+        <v>95.00</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Oct 24 2020</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Kings XI won by 12 runs</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Jonny Bairstow †</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="D14" t="str">
+        <v>25</v>
+      </c>
+      <c r="E14" t="str">
+        <v>15</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <v>2</v>
+      </c>
+      <c r="H14" t="str">
+        <v>166.66</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Oct 4 2020</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Mumbai won by 34 runs</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Jonny Bairstow †</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="D15" t="str">
+        <v>23</v>
+      </c>
+      <c r="E15" t="str">
+        <v>24</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2</v>
+      </c>
+      <c r="G15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H15" t="str">
+        <v>95.83</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Oct 13 2020</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Super Kings won by 20 runs</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Jonny Bairstow †</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="D16" t="str">
+        <v>97</v>
+      </c>
+      <c r="E16" t="str">
+        <v>55</v>
+      </c>
+      <c r="F16" t="str">
+        <v>7</v>
+      </c>
+      <c r="G16" t="str">
+        <v>6</v>
+      </c>
+      <c r="H16" t="str">
+        <v>176.36</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Oct 8 2020</v>
+      </c>
+      <c r="K16" t="str">
+        <v>Sunrisers won by 69 runs</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Jonny Bairstow †</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="D17" t="str">
+        <v>10</v>
+      </c>
+      <c r="E17" t="str">
+        <v>7</v>
+      </c>
+      <c r="F17" t="str">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <v>1</v>
+      </c>
+      <c r="H17" t="str">
+        <v>142.85</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Oct 22 2020</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Sunrisers won by 8 wickets (with 11 balls remaining)</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Jonny Bairstow †</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="D18" t="str">
+        <v>16</v>
+      </c>
+      <c r="E18" t="str">
+        <v>19</v>
+      </c>
+      <c r="F18" t="str">
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <v>1</v>
+      </c>
+      <c r="H18" t="str">
+        <v>84.21</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Oct 11 2020</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Royals won by 5 wickets (with 1 ball remaining)</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Jonny Bairstow †</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="D19" t="str">
+        <v>61</v>
+      </c>
+      <c r="E19" t="str">
+        <v>43</v>
+      </c>
+      <c r="F19" t="str">
+        <v>6</v>
+      </c>
+      <c r="G19" t="str">
+        <v>2</v>
+      </c>
+      <c r="H19" t="str">
+        <v>141.86</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Sep 21 2020</v>
+      </c>
+      <c r="K19" t="str">
+        <v>RCB won by 10 runs</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Jonny Bairstow †</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="D20" t="str">
+        <v>36</v>
+      </c>
+      <c r="E20" t="str">
+        <v>28</v>
+      </c>
+      <c r="F20" t="str">
+        <v>7</v>
+      </c>
+      <c r="G20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H20" t="str">
+        <v>128.57</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Oct 18 2020</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Match tied (KKR won the one-over eliminator)</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Jonny Bairstow †</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="D21" t="str">
+        <v>53</v>
+      </c>
+      <c r="E21" t="str">
+        <v>48</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <v>1</v>
+      </c>
+      <c r="H21" t="str">
+        <v>110.41</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Sep 29 2020</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Sunrisers won by 15 runs</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K21"/>
   </ignoredErrors>
 </worksheet>
 </file>